--- a/LightningFlashes.xlsx
+++ b/LightningFlashes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="314">
   <si>
     <t>D20170929T202255.000Z</t>
   </si>
@@ -782,6 +782,186 @@
   </si>
   <si>
     <t>20B-7\Imp_20B7-all.pdf</t>
+  </si>
+  <si>
+    <t>L822402A</t>
+  </si>
+  <si>
+    <t>21A</t>
+  </si>
+  <si>
+    <t>D20210509T102851</t>
+  </si>
+  <si>
+    <t>D20210509T104553</t>
+  </si>
+  <si>
+    <t>D20210509T111159</t>
+  </si>
+  <si>
+    <t>D20210509T122956</t>
+  </si>
+  <si>
+    <t>D20210509T125209</t>
+  </si>
+  <si>
+    <t>D20210519T101413</t>
+  </si>
+  <si>
+    <t>D20210519T102506</t>
+  </si>
+  <si>
+    <t>D20210519T103902</t>
+  </si>
+  <si>
+    <t>D20210519T105547</t>
+  </si>
+  <si>
+    <t>D20210519T111341</t>
+  </si>
+  <si>
+    <t>D20210519T113327</t>
+  </si>
+  <si>
+    <t>D20210519T120230</t>
+  </si>
+  <si>
+    <t>D20210519T122146</t>
+  </si>
+  <si>
+    <t>D20210519T124343</t>
+  </si>
+  <si>
+    <t>D20210605T055555</t>
+  </si>
+  <si>
+    <t>D20210605T061618</t>
+  </si>
+  <si>
+    <t>D20210605T063850</t>
+  </si>
+  <si>
+    <t>D20210618T174657</t>
+  </si>
+  <si>
+    <t>D20210618T180643</t>
+  </si>
+  <si>
+    <t>D20210618T182639</t>
+  </si>
+  <si>
+    <t>D20210618T183922</t>
+  </si>
+  <si>
+    <t>D20210618T185847</t>
+  </si>
+  <si>
+    <t>D20210618T191735</t>
+  </si>
+  <si>
+    <t>D20210618T193728</t>
+  </si>
+  <si>
+    <t>D20210618T195423</t>
+  </si>
+  <si>
+    <t>D20210618T201150</t>
+  </si>
+  <si>
+    <t>D20210628T193654</t>
+  </si>
+  <si>
+    <t>D20210628T203225</t>
+  </si>
+  <si>
+    <t>D20210628T204913</t>
+  </si>
+  <si>
+    <t>D20210628T210923</t>
+  </si>
+  <si>
+    <t>D20210628T212456</t>
+  </si>
+  <si>
+    <t>D20210628T214113</t>
+  </si>
+  <si>
+    <t>D20210806T145844</t>
+  </si>
+  <si>
+    <t>D20210806T152739</t>
+  </si>
+  <si>
+    <t>D20210806T154444</t>
+  </si>
+  <si>
+    <t>D20210806T160554</t>
+  </si>
+  <si>
+    <t>D20210806T162423</t>
+  </si>
+  <si>
+    <t>D20210806T164246</t>
+  </si>
+  <si>
+    <t>D20210806T170756</t>
+  </si>
+  <si>
+    <t>#RS</t>
+  </si>
+  <si>
+    <t>21B</t>
+  </si>
+  <si>
+    <t>21C</t>
+  </si>
+  <si>
+    <t>21D</t>
+  </si>
+  <si>
+    <t>21E</t>
+  </si>
+  <si>
+    <t>21A-1</t>
+  </si>
+  <si>
+    <t>21A-2</t>
+  </si>
+  <si>
+    <t>21A-3</t>
+  </si>
+  <si>
+    <t>21A-4</t>
+  </si>
+  <si>
+    <t>21A-5</t>
+  </si>
+  <si>
+    <t>21A-6</t>
+  </si>
+  <si>
+    <t>21A-7</t>
+  </si>
+  <si>
+    <t>21A-8</t>
+  </si>
+  <si>
+    <t>21A-9</t>
+  </si>
+  <si>
+    <t>21A10</t>
+  </si>
+  <si>
+    <t>21A11</t>
+  </si>
+  <si>
+    <t>21A12</t>
+  </si>
+  <si>
+    <t>21A13</t>
+  </si>
+  <si>
+    <t>21A14</t>
   </si>
 </sst>
 </file>
@@ -848,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -867,6 +1047,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1148,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2551,6 +2739,401 @@
     <row r="108" spans="1:11" s="11" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="D108" s="12"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E110" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E111" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E113" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E114" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E115" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E116" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E121" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E122" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="15"/>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E126" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E127" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E128" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="15"/>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E130" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E131" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E132" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E133" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E134" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E135" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E136" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="15"/>
+      <c r="E139" s="17"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E140" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E141" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E142" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E143" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E144" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E145" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="15"/>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E147" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E148" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E149" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E150" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E151" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E152" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E153" s="17">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2630,9 +3213,10 @@
     <hyperlink ref="G101" r:id="rId74"/>
     <hyperlink ref="G102" r:id="rId75"/>
     <hyperlink ref="G103" r:id="rId76"/>
+    <hyperlink ref="B109" r:id="rId77" location="gid=1915069297"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId77"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId78"/>
 </worksheet>
 </file>
 

--- a/LightningFlashes.xlsx
+++ b/LightningFlashes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="369">
   <si>
     <t>D20170929T202255.000Z</t>
   </si>
@@ -910,18 +910,6 @@
     <t>#RS</t>
   </si>
   <si>
-    <t>21B</t>
-  </si>
-  <si>
-    <t>21C</t>
-  </si>
-  <si>
-    <t>21D</t>
-  </si>
-  <si>
-    <t>21E</t>
-  </si>
-  <si>
     <t>21A-1</t>
   </si>
   <si>
@@ -962,6 +950,183 @@
   </si>
   <si>
     <t>21A14</t>
+  </si>
+  <si>
+    <t>We have mag loop data for these times (among others):</t>
+  </si>
+  <si>
+    <t>2021-05-09T10:28:52.607560</t>
+  </si>
+  <si>
+    <t>2021-05-09T10:45:53.641876</t>
+  </si>
+  <si>
+    <t>2021-06-05T05:55:55.697399</t>
+  </si>
+  <si>
+    <t>2021-06-05T06:16:18.988353</t>
+  </si>
+  <si>
+    <t>2021-06-18T17:46:58.330059</t>
+  </si>
+  <si>
+    <t>2021-06-18T18:06:44.747848</t>
+  </si>
+  <si>
+    <t>2021-06-18T18:26:40.267675</t>
+  </si>
+  <si>
+    <t>2021-06-18T18:39:23.230314</t>
+  </si>
+  <si>
+    <t>2021-06-18T18:58:48.307558</t>
+  </si>
+  <si>
+    <t>2021-06-18T19:17:36.252179</t>
+  </si>
+  <si>
+    <t>2021-06-18T19:37:29.660991</t>
+  </si>
+  <si>
+    <t>2021-06-18T19:54:24.774434</t>
+  </si>
+  <si>
+    <t>2021-06-18T20:11:51.873295</t>
+  </si>
+  <si>
+    <t>2021-08-06T14:58:45.129064</t>
+  </si>
+  <si>
+    <t>2021-08-06T15:27:40.230144</t>
+  </si>
+  <si>
+    <t>2021-08-06T15:44:45.508357</t>
+  </si>
+  <si>
+    <t>Thus, these flashes could have coincidences:</t>
+  </si>
+  <si>
+    <t>D20210618T174657.311Z</t>
+  </si>
+  <si>
+    <t>D20210618T180643.728Z</t>
+  </si>
+  <si>
+    <t>D20210618T182639.244Z</t>
+  </si>
+  <si>
+    <t>D20210618T183922.209Z</t>
+  </si>
+  <si>
+    <t>D20210618T185847.286Z</t>
+  </si>
+  <si>
+    <t>D20210618T191735.228Z</t>
+  </si>
+  <si>
+    <t>D20210618T193728.637Z</t>
+  </si>
+  <si>
+    <t>D20210618T195423.750Z</t>
+  </si>
+  <si>
+    <t>D20210618T201150.857Z</t>
+  </si>
+  <si>
+    <t>21B-1</t>
+  </si>
+  <si>
+    <t>21B-2</t>
+  </si>
+  <si>
+    <t>21B-3</t>
+  </si>
+  <si>
+    <t>21C-1</t>
+  </si>
+  <si>
+    <t>21C-2</t>
+  </si>
+  <si>
+    <t>21C-3</t>
+  </si>
+  <si>
+    <t>21C-4</t>
+  </si>
+  <si>
+    <t>21C-5</t>
+  </si>
+  <si>
+    <t>21C-6</t>
+  </si>
+  <si>
+    <t>21C-7</t>
+  </si>
+  <si>
+    <t>21C-8</t>
+  </si>
+  <si>
+    <t>21C-9</t>
+  </si>
+  <si>
+    <t>21D-1</t>
+  </si>
+  <si>
+    <t>21D-3</t>
+  </si>
+  <si>
+    <t>21D-4</t>
+  </si>
+  <si>
+    <t>21D-2*</t>
+  </si>
+  <si>
+    <t>21D-5*</t>
+  </si>
+  <si>
+    <t>21D-6*</t>
+  </si>
+  <si>
+    <t>12/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>12/11</t>
+  </si>
+  <si>
+    <t>13/13</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>21E-1</t>
+  </si>
+  <si>
+    <t>21E-2</t>
+  </si>
+  <si>
+    <t>21E-3</t>
+  </si>
+  <si>
+    <t>21E-4</t>
+  </si>
+  <si>
+    <t>21E-5</t>
+  </si>
+  <si>
+    <t>21E-6</t>
+  </si>
+  <si>
+    <t>21E-7</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1aZfymXC4EaJxuDKx_wAXqG3JJG48PaF-jDgmze4Brmk/edit#gid=1915069297</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1217,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,6 +1513,7 @@
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="8"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="2.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
@@ -1379,7 +1545,7 @@
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>58</v>
       </c>
       <c r="G2" t="s">
@@ -1408,7 +1574,7 @@
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F3" t="s">
@@ -1486,7 +1652,7 @@
       <c r="D10" s="2">
         <v>43986.92291666667</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>6120017</v>
       </c>
       <c r="F10" t="s">
@@ -1533,7 +1699,7 @@
       <c r="D15" s="2">
         <v>43874</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>12484121</v>
       </c>
       <c r="F15" t="s">
@@ -1556,7 +1722,7 @@
       <c r="D16" s="2">
         <v>43872</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>10912744</v>
       </c>
       <c r="F16" t="s">
@@ -1567,7 +1733,7 @@
       <c r="D17" s="2">
         <v>43872</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <v>8781676</v>
       </c>
       <c r="F17" t="s">
@@ -1578,7 +1744,7 @@
       <c r="D18" s="2">
         <v>43872</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="s">
@@ -1654,7 +1820,7 @@
       <c r="D25" s="2">
         <v>44078</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F25" t="s">
@@ -1685,7 +1851,7 @@
       <c r="D27" s="2">
         <v>44078</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F27" t="s">
@@ -1724,7 +1890,7 @@
       <c r="D30" s="2">
         <v>43855</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="8">
         <v>8712181</v>
       </c>
       <c r="F30" t="s">
@@ -1759,7 +1925,7 @@
       <c r="D32" s="2">
         <v>43939</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
         <v>5347670</v>
       </c>
       <c r="F32" t="s">
@@ -1785,7 +1951,7 @@
       <c r="D33" s="2">
         <v>43932</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="8">
         <v>13463899</v>
       </c>
       <c r="F33" t="s">
@@ -1796,7 +1962,7 @@
       <c r="D34" s="2">
         <v>43939</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="8">
         <v>2444431</v>
       </c>
       <c r="F34" t="s">
@@ -1807,7 +1973,7 @@
       <c r="D35" s="2">
         <v>43933</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
@@ -1824,7 +1990,7 @@
       <c r="D36" s="2">
         <v>43628</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F36" t="s">
@@ -1844,7 +2010,7 @@
       <c r="D37" s="2">
         <v>43628</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F37" t="s">
@@ -1881,7 +2047,7 @@
       <c r="D39" s="2">
         <v>44120</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="8" t="s">
         <v>196</v>
       </c>
       <c r="F39" t="s">
@@ -1923,7 +2089,7 @@
       <c r="D43" s="2">
         <v>43925</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="8">
         <v>29528926</v>
       </c>
       <c r="F43" t="s">
@@ -1951,7 +2117,7 @@
       <c r="D44" s="2">
         <v>43930</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="8">
         <v>33526303</v>
       </c>
       <c r="F44" t="s">
@@ -1971,7 +2137,7 @@
       <c r="D45" s="2">
         <v>43981</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="8">
         <v>22516865</v>
       </c>
       <c r="F45" t="s">
@@ -1985,7 +2151,7 @@
       <c r="D46" s="2">
         <v>43979</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="8">
         <v>22773365</v>
       </c>
       <c r="F46" t="s">
@@ -2002,7 +2168,7 @@
       <c r="D47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F47" t="s">
@@ -2024,7 +2190,7 @@
       <c r="D49" s="2">
         <v>43988</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="8">
         <v>21597797</v>
       </c>
       <c r="F49" t="s">
@@ -2047,7 +2213,7 @@
       <c r="D50" s="2">
         <v>44008</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F50" t="s">
@@ -2058,7 +2224,7 @@
       <c r="D51" s="2">
         <v>44008</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F51" t="s">
@@ -2075,7 +2241,7 @@
       <c r="D52" s="2">
         <v>43981</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="8">
         <v>16286309</v>
       </c>
       <c r="F52" t="s">
@@ -2098,7 +2264,7 @@
       <c r="D53" s="2">
         <v>43998</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="8">
         <v>28118484</v>
       </c>
       <c r="F53" t="s">
@@ -2109,7 +2275,7 @@
       <c r="D54" s="2">
         <v>43998</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="8">
         <v>27352631</v>
       </c>
       <c r="F54" t="s">
@@ -2371,7 +2537,7 @@
       <c r="D77" s="2">
         <v>44109</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F77" t="s">
@@ -2432,7 +2598,7 @@
       <c r="D81" s="2">
         <v>44106</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F81" t="s">
@@ -2571,6 +2737,7 @@
         <v>230</v>
       </c>
       <c r="D93" s="12"/>
+      <c r="E93" s="9"/>
       <c r="K93" s="10" t="s">
         <v>229</v>
       </c>
@@ -2583,6 +2750,7 @@
         <v>217</v>
       </c>
       <c r="D94" s="12"/>
+      <c r="E94" s="9"/>
       <c r="K94" s="10" t="s">
         <v>227</v>
       </c>
@@ -2595,6 +2763,7 @@
         <v>218</v>
       </c>
       <c r="D95" s="12"/>
+      <c r="E95" s="9"/>
       <c r="K95" s="10" t="s">
         <v>228</v>
       </c>
@@ -2607,6 +2776,7 @@
         <v>219</v>
       </c>
       <c r="D96" s="12"/>
+      <c r="E96" s="9"/>
       <c r="K96" s="10" t="s">
         <v>228</v>
       </c>
@@ -2619,6 +2789,7 @@
         <v>220</v>
       </c>
       <c r="D97" s="12"/>
+      <c r="E97" s="9"/>
       <c r="K97" s="10" t="s">
         <v>228</v>
       </c>
@@ -2631,6 +2802,7 @@
         <v>221</v>
       </c>
       <c r="D98" s="12"/>
+      <c r="E98" s="9"/>
       <c r="K98" s="10" t="s">
         <v>228</v>
       </c>
@@ -2645,6 +2817,7 @@
       <c r="D99" s="12">
         <v>44316</v>
       </c>
+      <c r="E99" s="9"/>
       <c r="G99" s="13" t="s">
         <v>246</v>
       </c>
@@ -2656,6 +2829,7 @@
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="D100" s="12"/>
+      <c r="E100" s="9"/>
       <c r="G100" s="13" t="s">
         <v>247</v>
       </c>
@@ -2665,6 +2839,7 @@
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="D101" s="12"/>
+      <c r="E101" s="9"/>
       <c r="G101" s="13" t="s">
         <v>249</v>
       </c>
@@ -2674,6 +2849,7 @@
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="D102" s="12"/>
+      <c r="E102" s="9"/>
       <c r="G102" s="13" t="s">
         <v>248</v>
       </c>
@@ -2689,6 +2865,7 @@
       <c r="D103" s="12">
         <v>44324</v>
       </c>
+      <c r="E103" s="9"/>
       <c r="G103" s="13" t="s">
         <v>253</v>
       </c>
@@ -2704,6 +2881,7 @@
         <v>224</v>
       </c>
       <c r="D104" s="12"/>
+      <c r="E104" s="9"/>
       <c r="K104" s="10" t="s">
         <v>228</v>
       </c>
@@ -2716,6 +2894,7 @@
         <v>225</v>
       </c>
       <c r="D105" s="12"/>
+      <c r="E105" s="9"/>
       <c r="K105" s="10" t="s">
         <v>228</v>
       </c>
@@ -2728,6 +2907,7 @@
         <v>226</v>
       </c>
       <c r="D106" s="12"/>
+      <c r="E106" s="9"/>
       <c r="K106" s="10" t="s">
         <v>228</v>
       </c>
@@ -2735,10 +2915,12 @@
     <row r="107" spans="1:11" s="11" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="D107" s="12"/>
+      <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:11" s="11" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="D108" s="12"/>
+      <c r="E108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -2747,15 +2929,18 @@
       <c r="B109" s="14" t="s">
         <v>254</v>
       </c>
+      <c r="C109" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E110" t="s">
+      <c r="E110" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>256</v>
@@ -2766,7 +2951,7 @@
     </row>
     <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>257</v>
@@ -2777,7 +2962,7 @@
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>258</v>
@@ -2788,7 +2973,7 @@
     </row>
     <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>259</v>
@@ -2799,7 +2984,7 @@
     </row>
     <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>260</v>
@@ -2810,7 +2995,7 @@
     </row>
     <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>261</v>
@@ -2821,7 +3006,7 @@
     </row>
     <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>262</v>
@@ -2832,7 +3017,7 @@
     </row>
     <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>263</v>
@@ -2843,7 +3028,7 @@
     </row>
     <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>264</v>
@@ -2854,7 +3039,7 @@
     </row>
     <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>265</v>
@@ -2865,7 +3050,7 @@
     </row>
     <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>266</v>
@@ -2876,7 +3061,7 @@
     </row>
     <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>267</v>
@@ -2887,7 +3072,7 @@
     </row>
     <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>268</v>
@@ -2898,7 +3083,7 @@
     </row>
     <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>269</v>
@@ -2913,7 +3098,7 @@
     </row>
     <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>270</v>
@@ -2923,6 +3108,9 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="B127" s="15" t="s">
         <v>271</v>
       </c>
@@ -2931,6 +3119,9 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B128" s="15" t="s">
         <v>272</v>
       </c>
@@ -2944,7 +3135,7 @@
     </row>
     <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="B130" s="15" t="s">
         <v>273</v>
@@ -2954,6 +3145,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="B131" s="15" t="s">
         <v>274</v>
       </c>
@@ -2962,46 +3156,64 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="B132" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="E132" s="17">
-        <v>13</v>
+      <c r="E132" s="17" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="B133" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E133" s="17">
-        <v>3</v>
+      <c r="E133" s="17" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="B134" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="E134" s="17">
-        <v>13</v>
+      <c r="E134" s="17" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="B135" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E135" s="17">
-        <v>11</v>
+      <c r="E135" s="17" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="B136" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E136" s="17">
-        <v>13</v>
+      <c r="E136" s="17" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B137" s="15" t="s">
         <v>280</v>
       </c>
@@ -3010,6 +3222,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="B138" s="15" t="s">
         <v>281</v>
       </c>
@@ -3023,7 +3238,7 @@
     </row>
     <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="B140" s="15" t="s">
         <v>282</v>
@@ -3033,6 +3248,9 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="B141" s="15" t="s">
         <v>283</v>
       </c>
@@ -3041,6 +3259,9 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="B142" s="15" t="s">
         <v>284</v>
       </c>
@@ -3049,6 +3270,9 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="8" t="s">
+        <v>351</v>
+      </c>
       <c r="B143" s="15" t="s">
         <v>285</v>
       </c>
@@ -3057,6 +3281,9 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="8" t="s">
+        <v>353</v>
+      </c>
       <c r="B144" s="15" t="s">
         <v>286</v>
       </c>
@@ -3064,7 +3291,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="B145" s="15" t="s">
         <v>287</v>
       </c>
@@ -3072,13 +3302,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="15"/>
       <c r="E146" s="17"/>
     </row>
-    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>288</v>
@@ -3087,7 +3317,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="B148" s="15" t="s">
         <v>289</v>
       </c>
@@ -3095,7 +3328,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="B149" s="15" t="s">
         <v>290</v>
       </c>
@@ -3103,7 +3339,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="B150" s="15" t="s">
         <v>291</v>
       </c>
@@ -3111,7 +3350,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="8" t="s">
+        <v>365</v>
+      </c>
       <c r="B151" s="15" t="s">
         <v>292</v>
       </c>
@@ -3119,7 +3361,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="8" t="s">
+        <v>366</v>
+      </c>
       <c r="B152" s="15" t="s">
         <v>293</v>
       </c>
@@ -3127,12 +3372,150 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="B153" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="E153" s="17">
-        <v>13</v>
+      <c r="E153" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F158" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F161" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F163" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F164" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F165" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F166" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F167" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F168" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F169" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F170" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F171" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F173" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F174" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F175" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F178" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F179" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F180" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F181" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F182" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F183" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F184" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F185" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F186" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F187" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/LightningFlashes.xlsx
+++ b/LightningFlashes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="372">
   <si>
     <t>D20170929T202255.000Z</t>
   </si>
@@ -1127,13 +1127,22 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1aZfymXC4EaJxuDKx_wAXqG3JJG48PaF-jDgmze4Brmk/edit#gid=1915069297</t>
+  </si>
+  <si>
+    <t>21c-4</t>
+  </si>
+  <si>
+    <t>few lofar stations</t>
+  </si>
+  <si>
+    <t>most interesting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,6 +1164,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF777777"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1193,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1220,6 +1234,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1503,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="M126" sqref="M126"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1517,7 +1533,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="2.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1554,7 +1570,7 @@
       <c r="H2" t="s">
         <v>103</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>183</v>
       </c>
       <c r="J2" t="s">
@@ -1586,7 +1602,7 @@
       <c r="H3" t="s">
         <v>170</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="8" t="s">
         <v>184</v>
       </c>
       <c r="J3" t="s">
@@ -1600,7 +1616,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -1937,7 +1953,7 @@
       <c r="H32" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="19" t="s">
         <v>185</v>
       </c>
       <c r="L32" t="s">
@@ -2002,7 +2018,7 @@
       <c r="H36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="19" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2022,7 +2038,7 @@
       <c r="H37" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="19" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2035,7 +2051,7 @@
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
@@ -2056,7 +2072,7 @@
       <c r="H39" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="19" t="s">
         <v>195</v>
       </c>
       <c r="K39" t="s">
@@ -2101,7 +2117,7 @@
       <c r="H43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="19" t="s">
         <v>195</v>
       </c>
       <c r="J43" s="4"/>
@@ -2199,7 +2215,7 @@
       <c r="H49" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="19" t="s">
         <v>199</v>
       </c>
       <c r="L49" t="s">
@@ -2250,7 +2266,7 @@
       <c r="H52" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="19" t="s">
         <v>199</v>
       </c>
       <c r="L52" t="s">
@@ -2345,7 +2361,7 @@
       <c r="H61" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="4"/>
+      <c r="I61" s="19"/>
       <c r="J61" s="4"/>
       <c r="K61" t="s">
         <v>94</v>
@@ -2364,7 +2380,7 @@
       <c r="H62" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I62" s="4"/>
+      <c r="I62" s="19"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
@@ -2379,7 +2395,7 @@
       <c r="H63" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="4"/>
+      <c r="I63" s="19"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
@@ -2549,7 +2565,7 @@
       <c r="H77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I77" s="4"/>
+      <c r="I77" s="19"/>
       <c r="J77" s="4"/>
       <c r="K77" t="s">
         <v>113</v>
@@ -2568,7 +2584,7 @@
       <c r="H78" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I78" s="4"/>
+      <c r="I78" s="19"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
@@ -2579,7 +2595,7 @@
       <c r="H79" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I79" s="4"/>
+      <c r="I79" s="19"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
@@ -2590,7 +2606,7 @@
       <c r="H80" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="4"/>
+      <c r="I80" s="19"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
@@ -2610,7 +2626,7 @@
       <c r="H81" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I81" s="4"/>
+      <c r="I81" s="19"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
@@ -2621,7 +2637,7 @@
       <c r="H82" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I82" s="4"/>
+      <c r="I82" s="19"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
@@ -2632,7 +2648,7 @@
       <c r="H83" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I83" s="4"/>
+      <c r="I83" s="19"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
@@ -2643,7 +2659,7 @@
       <c r="H84" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I84" s="4"/>
+      <c r="I84" s="19"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
@@ -2661,7 +2677,7 @@
       <c r="H85" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I85" s="4"/>
+      <c r="I85" s="19"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
@@ -2672,7 +2688,7 @@
       <c r="H86" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I86" s="4"/>
+      <c r="I86" s="19"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
@@ -2683,7 +2699,7 @@
       <c r="H87" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I87" s="4"/>
+      <c r="I87" s="19"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
@@ -2694,7 +2710,7 @@
       <c r="H88" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I88" s="4"/>
+      <c r="I88" s="19"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
@@ -2717,7 +2733,7 @@
       <c r="H89" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I89" s="4"/>
+      <c r="I89" s="19"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
         <v>177</v>
@@ -2738,6 +2754,7 @@
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="K93" s="10" t="s">
         <v>229</v>
       </c>
@@ -2751,6 +2768,7 @@
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="9"/>
+      <c r="I94" s="9"/>
       <c r="K94" s="10" t="s">
         <v>227</v>
       </c>
@@ -2764,6 +2782,7 @@
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="9"/>
+      <c r="I95" s="9"/>
       <c r="K95" s="10" t="s">
         <v>228</v>
       </c>
@@ -2777,6 +2796,7 @@
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="9"/>
+      <c r="I96" s="9"/>
       <c r="K96" s="10" t="s">
         <v>228</v>
       </c>
@@ -2790,6 +2810,7 @@
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="9"/>
+      <c r="I97" s="9"/>
       <c r="K97" s="10" t="s">
         <v>228</v>
       </c>
@@ -2803,6 +2824,7 @@
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="9"/>
+      <c r="I98" s="9"/>
       <c r="K98" s="10" t="s">
         <v>228</v>
       </c>
@@ -2821,6 +2843,7 @@
       <c r="G99" s="13" t="s">
         <v>246</v>
       </c>
+      <c r="I99" s="9"/>
       <c r="K99" s="10" t="s">
         <v>245</v>
       </c>
@@ -2833,6 +2856,7 @@
       <c r="G100" s="13" t="s">
         <v>247</v>
       </c>
+      <c r="I100" s="9"/>
       <c r="K100" s="10"/>
     </row>
     <row r="101" spans="1:11" s="11" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2843,6 +2867,7 @@
       <c r="G101" s="13" t="s">
         <v>249</v>
       </c>
+      <c r="I101" s="9"/>
       <c r="K101" s="10"/>
     </row>
     <row r="102" spans="1:11" s="11" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2853,6 +2878,7 @@
       <c r="G102" s="13" t="s">
         <v>248</v>
       </c>
+      <c r="I102" s="9"/>
       <c r="K102" s="10"/>
     </row>
     <row r="103" spans="1:11" s="11" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2869,6 +2895,7 @@
       <c r="G103" s="13" t="s">
         <v>253</v>
       </c>
+      <c r="I103" s="9"/>
       <c r="K103" s="10" t="s">
         <v>252</v>
       </c>
@@ -2882,6 +2909,7 @@
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="9"/>
+      <c r="I104" s="9"/>
       <c r="K104" s="10" t="s">
         <v>228</v>
       </c>
@@ -2895,6 +2923,7 @@
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="9"/>
+      <c r="I105" s="9"/>
       <c r="K105" s="10" t="s">
         <v>228</v>
       </c>
@@ -2908,6 +2937,7 @@
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="9"/>
+      <c r="I106" s="9"/>
       <c r="K106" s="10" t="s">
         <v>228</v>
       </c>
@@ -2916,11 +2946,13 @@
       <c r="A107" s="9"/>
       <c r="D107" s="12"/>
       <c r="E107" s="9"/>
+      <c r="I107" s="9"/>
     </row>
     <row r="108" spans="1:11" s="11" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="D108" s="12"/>
       <c r="E108" s="9"/>
+      <c r="I108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -2929,7 +2961,7 @@
       <c r="B109" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3140,6 +3172,7 @@
       <c r="B130" s="15" t="s">
         <v>273</v>
       </c>
+      <c r="C130" s="18"/>
       <c r="E130" s="17">
         <v>13</v>
       </c>
@@ -3291,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>354</v>
       </c>
@@ -3302,11 +3335,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="15"/>
       <c r="E146" s="17"/>
     </row>
-    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>361</v>
       </c>
@@ -3317,7 +3350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>362</v>
       </c>
@@ -3328,7 +3361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>363</v>
       </c>
@@ -3339,7 +3372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>364</v>
       </c>
@@ -3350,7 +3383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>365</v>
       </c>
@@ -3361,7 +3394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>366</v>
       </c>
@@ -3372,7 +3405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>367</v>
       </c>
@@ -3383,89 +3416,115 @@
         <v>360</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F155" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I156" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F157" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F158" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F160" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F161" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F163" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="I163" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F164" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F165" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F166" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="I166" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J166" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F167" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="I167" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F168" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F169" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F170" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="I170" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F171" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="I171" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F173" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F174" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F175" t="s">
         <v>326</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.3">
@@ -3597,9 +3656,10 @@
     <hyperlink ref="G102" r:id="rId75"/>
     <hyperlink ref="G103" r:id="rId76"/>
     <hyperlink ref="B109" r:id="rId77" location="gid=1915069297"/>
+    <hyperlink ref="C109" r:id="rId78" location="gid=1915069297"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId78"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId79"/>
 </worksheet>
 </file>
 

--- a/LightningFlashes.xlsx
+++ b/LightningFlashes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C9EC30-6FC7-4C75-83D6-395461A9B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13992" windowHeight="7968"/>
+    <workbookView xWindow="41985" yWindow="435" windowWidth="19950" windowHeight="20115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="389">
   <si>
     <t>D20170929T202255.000Z</t>
   </si>
@@ -925,33 +926,6 @@
     <t>21A-5</t>
   </si>
   <si>
-    <t>21A-6</t>
-  </si>
-  <si>
-    <t>21A-7</t>
-  </si>
-  <si>
-    <t>21A-8</t>
-  </si>
-  <si>
-    <t>21A-9</t>
-  </si>
-  <si>
-    <t>21A10</t>
-  </si>
-  <si>
-    <t>21A11</t>
-  </si>
-  <si>
-    <t>21A12</t>
-  </si>
-  <si>
-    <t>21A13</t>
-  </si>
-  <si>
-    <t>21A14</t>
-  </si>
-  <si>
     <t>We have mag loop data for these times (among others):</t>
   </si>
   <si>
@@ -1132,16 +1106,94 @@
     <t>21c-4</t>
   </si>
   <si>
-    <t>few lofar stations</t>
-  </si>
-  <si>
     <t>most interesting</t>
+  </si>
+  <si>
+    <t>46:58.277.961.728</t>
+  </si>
+  <si>
+    <t>39:23.177.886.720</t>
+  </si>
+  <si>
+    <t>58:48.255.130.624</t>
+  </si>
+  <si>
+    <t>54:24.722.006.016</t>
+  </si>
+  <si>
+    <t>11:51.820.867.584</t>
+  </si>
+  <si>
+    <t>d_LOF-ML</t>
+  </si>
+  <si>
+    <t>d_trigg-ML</t>
+  </si>
+  <si>
+    <t>t_start ML</t>
+  </si>
+  <si>
+    <t>t_trigger</t>
+  </si>
+  <si>
+    <t>1277.961.728 ms</t>
+  </si>
+  <si>
+    <t>1177.886.720</t>
+  </si>
+  <si>
+    <t>1255.130.624</t>
+  </si>
+  <si>
+    <t>1215..</t>
+  </si>
+  <si>
+    <t>1695..</t>
+  </si>
+  <si>
+    <t>1200..</t>
+  </si>
+  <si>
+    <t>1609..</t>
+  </si>
+  <si>
+    <t>1722.006.016</t>
+  </si>
+  <si>
+    <t>1820.867.584</t>
+  </si>
+  <si>
+    <t>21F-1</t>
+  </si>
+  <si>
+    <t>21F-2</t>
+  </si>
+  <si>
+    <t>21F-3</t>
+  </si>
+  <si>
+    <t>21F-4</t>
+  </si>
+  <si>
+    <t>21F-5</t>
+  </si>
+  <si>
+    <t>21F-6</t>
+  </si>
+  <si>
+    <t>21F-7</t>
+  </si>
+  <si>
+    <t>21F-8</t>
+  </si>
+  <si>
+    <t>21F-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1516,11 +1568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2962,7 +3014,7 @@
         <v>254</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3026,66 +3078,59 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E116" s="17">
-        <v>12</v>
-      </c>
+      <c r="B116" s="15"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E117" s="17">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E118" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E119" s="17">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E120" s="17">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E121" s="17">
         <v>5</v>
@@ -3093,21 +3138,21 @@
     </row>
     <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E122" s="17">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E123" s="17">
         <v>13</v>
@@ -3115,177 +3160,177 @@
     </row>
     <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
-        <v>309</v>
+        <v>387</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E124" s="17">
         <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="15"/>
-      <c r="E125" s="17"/>
+      <c r="A125" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E125" s="17">
+        <v>13</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="E126" s="17">
-        <v>13</v>
-      </c>
+      <c r="B126" s="15"/>
+      <c r="E126" s="17"/>
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E127" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B128" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E128" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B129" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E128" s="17">
+      <c r="E129" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="15"/>
-      <c r="E129" s="17"/>
-    </row>
     <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C130" s="18"/>
-      <c r="E130" s="17">
-        <v>13</v>
-      </c>
+      <c r="B130" s="15"/>
+      <c r="E130" s="17"/>
     </row>
     <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C131" s="18"/>
       <c r="E131" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>357</v>
+        <v>274</v>
+      </c>
+      <c r="E132" s="17">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E137" s="17">
-        <v>13</v>
+        <v>279</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B138" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E138" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E138" s="17">
+      <c r="E139" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="15"/>
-      <c r="E139" s="17"/>
-    </row>
     <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E140" s="17">
-        <v>13</v>
-      </c>
+      <c r="B140" s="15"/>
+      <c r="E140" s="17"/>
     </row>
     <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E141" s="17">
         <v>13</v>
@@ -3293,10 +3338,10 @@
     </row>
     <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E142" s="17">
         <v>13</v>
@@ -3304,80 +3349,80 @@
     </row>
     <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E143" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E144" s="17">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B145" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E145" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B146" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E145" s="17">
+      <c r="E146" s="17">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="15"/>
-      <c r="E146" s="17"/>
-    </row>
     <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E147" s="17">
-        <v>13</v>
-      </c>
+      <c r="B147" s="15"/>
+      <c r="E147" s="17"/>
     </row>
     <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E148" s="17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E149" s="17">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E150" s="17">
         <v>13</v>
@@ -3385,278 +3430,372 @@
     </row>
     <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E151" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E152" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B153" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E153" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B154" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="E153" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F155" t="s">
-        <v>310</v>
+      <c r="E154" s="17" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I156" s="8" t="s">
-        <v>371</v>
+      <c r="F156" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F157" t="s">
-        <v>311</v>
+      <c r="I157" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F158" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F159" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F161" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F162" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F163" t="s">
+        <v>370</v>
+      </c>
+      <c r="K163" t="s">
+        <v>369</v>
+      </c>
+      <c r="M163" t="s">
+        <v>368</v>
+      </c>
+      <c r="N163" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F164" t="s">
+        <v>306</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J164">
+        <v>174655</v>
+      </c>
+      <c r="K164" t="s">
+        <v>362</v>
+      </c>
+      <c r="N164" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="165" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F165" t="s">
+        <v>307</v>
+      </c>
+      <c r="J165">
+        <v>180641</v>
+      </c>
+      <c r="N165" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="166" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F166" t="s">
+        <v>308</v>
+      </c>
+      <c r="J166">
+        <v>182638</v>
+      </c>
+      <c r="N166" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="167" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F167" t="s">
+        <v>309</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J167">
+        <v>183920</v>
+      </c>
+      <c r="K167" t="s">
+        <v>363</v>
+      </c>
+      <c r="M167">
+        <v>52.427999999999997</v>
+      </c>
+      <c r="N167" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="168" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F168" t="s">
+        <v>310</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="J168">
+        <v>185846</v>
+      </c>
+      <c r="K168" t="s">
+        <v>364</v>
+      </c>
+      <c r="N168" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="169" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F169" t="s">
+        <v>311</v>
+      </c>
+      <c r="J169">
+        <v>191734</v>
+      </c>
+      <c r="N169" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="170" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F170" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F160" t="s">
+      <c r="J170">
+        <v>193727</v>
+      </c>
+      <c r="N170" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="171" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F171" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="161" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F161" t="s">
+      <c r="I171" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J171">
+        <v>195422</v>
+      </c>
+      <c r="K171" t="s">
+        <v>365</v>
+      </c>
+      <c r="N171" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="172" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F172" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="163" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F163" t="s">
+      <c r="I172" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="J172">
+        <v>201149</v>
+      </c>
+      <c r="K172" t="s">
+        <v>366</v>
+      </c>
+      <c r="N172" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="174" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F174" t="s">
         <v>315</v>
       </c>
-      <c r="I163" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="164" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F164" t="s">
+    </row>
+    <row r="175" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F175" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F165" t="s">
+    <row r="176" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F176" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="166" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F166" t="s">
-        <v>318</v>
-      </c>
-      <c r="I166" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="J166" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="167" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F167" t="s">
-        <v>319</v>
-      </c>
-      <c r="I167" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="168" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F168" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="169" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F169" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="170" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F170" t="s">
-        <v>322</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="171" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F171" t="s">
-        <v>323</v>
-      </c>
-      <c r="I171" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="173" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F173" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F174" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="175" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F175" t="s">
-        <v>326</v>
-      </c>
-      <c r="I175" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F178" t="s">
-        <v>327</v>
+      <c r="I176" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F179" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F180" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F181" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F182" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F183" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="184" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F184" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="185" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F185" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="186" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F186" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="187" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F187" t="s">
-        <v>336</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F188" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
-    <hyperlink ref="G15" r:id="rId2"/>
-    <hyperlink ref="G18" r:id="rId3"/>
-    <hyperlink ref="G30" r:id="rId4"/>
-    <hyperlink ref="G35" r:id="rId5"/>
-    <hyperlink ref="G36" r:id="rId6"/>
-    <hyperlink ref="G37" r:id="rId7"/>
-    <hyperlink ref="G27" r:id="rId8"/>
-    <hyperlink ref="G28" r:id="rId9"/>
-    <hyperlink ref="G25" r:id="rId10"/>
-    <hyperlink ref="G26" r:id="rId11"/>
-    <hyperlink ref="B2" r:id="rId12"/>
-    <hyperlink ref="D1" r:id="rId13"/>
-    <hyperlink ref="G64" r:id="rId14"/>
-    <hyperlink ref="G89" r:id="rId15"/>
-    <hyperlink ref="G59" r:id="rId16"/>
-    <hyperlink ref="G61" r:id="rId17"/>
-    <hyperlink ref="G70" r:id="rId18"/>
-    <hyperlink ref="G66" r:id="rId19"/>
-    <hyperlink ref="G72" r:id="rId20"/>
-    <hyperlink ref="G77" r:id="rId21"/>
-    <hyperlink ref="G81" r:id="rId22"/>
-    <hyperlink ref="G85" r:id="rId23"/>
-    <hyperlink ref="H85" r:id="rId24"/>
-    <hyperlink ref="H81" r:id="rId25"/>
-    <hyperlink ref="H62" r:id="rId26"/>
-    <hyperlink ref="G62" r:id="rId27"/>
-    <hyperlink ref="G63" r:id="rId28"/>
-    <hyperlink ref="H63" r:id="rId29"/>
-    <hyperlink ref="G78" r:id="rId30"/>
-    <hyperlink ref="G79" r:id="rId31"/>
-    <hyperlink ref="G80" r:id="rId32"/>
-    <hyperlink ref="H77" r:id="rId33"/>
-    <hyperlink ref="H78" r:id="rId34"/>
-    <hyperlink ref="H79" r:id="rId35"/>
-    <hyperlink ref="H80" r:id="rId36"/>
-    <hyperlink ref="G82" r:id="rId37"/>
-    <hyperlink ref="G83" r:id="rId38"/>
-    <hyperlink ref="G84" r:id="rId39"/>
-    <hyperlink ref="H82" r:id="rId40"/>
-    <hyperlink ref="H83" r:id="rId41"/>
-    <hyperlink ref="H84" r:id="rId42"/>
-    <hyperlink ref="G86" r:id="rId43"/>
-    <hyperlink ref="G87" r:id="rId44"/>
-    <hyperlink ref="G88" r:id="rId45"/>
-    <hyperlink ref="H86" r:id="rId46"/>
-    <hyperlink ref="H87" r:id="rId47"/>
-    <hyperlink ref="H88" r:id="rId48"/>
-    <hyperlink ref="H61" r:id="rId49"/>
-    <hyperlink ref="G32" r:id="rId50"/>
-    <hyperlink ref="G43" r:id="rId51"/>
-    <hyperlink ref="H43" r:id="rId52"/>
-    <hyperlink ref="M1" r:id="rId53"/>
-    <hyperlink ref="M2" r:id="rId54"/>
-    <hyperlink ref="M3" r:id="rId55"/>
-    <hyperlink ref="M10" r:id="rId56"/>
-    <hyperlink ref="G73" r:id="rId57"/>
-    <hyperlink ref="G74" r:id="rId58"/>
-    <hyperlink ref="H32" r:id="rId59"/>
-    <hyperlink ref="I32" r:id="rId60"/>
-    <hyperlink ref="H36" r:id="rId61"/>
-    <hyperlink ref="I36" r:id="rId62"/>
-    <hyperlink ref="I37" r:id="rId63"/>
-    <hyperlink ref="H37" r:id="rId64"/>
-    <hyperlink ref="I43" r:id="rId65"/>
-    <hyperlink ref="H39" r:id="rId66"/>
-    <hyperlink ref="I39" r:id="rId67"/>
-    <hyperlink ref="H49" r:id="rId68"/>
-    <hyperlink ref="H52" r:id="rId69"/>
-    <hyperlink ref="I52" r:id="rId70"/>
-    <hyperlink ref="I49" r:id="rId71"/>
-    <hyperlink ref="G99" r:id="rId72"/>
-    <hyperlink ref="G100" r:id="rId73"/>
-    <hyperlink ref="G101" r:id="rId74"/>
-    <hyperlink ref="G102" r:id="rId75"/>
-    <hyperlink ref="G103" r:id="rId76"/>
-    <hyperlink ref="B109" r:id="rId77" location="gid=1915069297"/>
-    <hyperlink ref="C109" r:id="rId78" location="gid=1915069297"/>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G35" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G36" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G37" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G25" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D1" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G64" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G89" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G59" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G61" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G70" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G66" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G72" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G77" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G81" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G85" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H85" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H81" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H62" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G62" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G63" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H63" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G78" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G79" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G80" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H78" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H79" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H80" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G82" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G83" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G84" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H82" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H83" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H84" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G86" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G87" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G88" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H86" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H87" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H88" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H61" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G32" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M1" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="M2" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="M3" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M10" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G73" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G74" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H36" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I36" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H37" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I43" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H39" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I39" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H49" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H52" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I52" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I49" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G99" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G100" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G101" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G102" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G103" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B109" r:id="rId77" location="gid=1915069297" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C109" r:id="rId78" location="gid=1915069297" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId79"/>
@@ -3664,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
